--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Pdgfc-Pdgfrb.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Pdgfc-Pdgfrb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +519,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -528,49 +531,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.31733440688211</v>
+        <v>0.2663606666666666</v>
       </c>
       <c r="H2">
-        <v>2.31733440688211</v>
+        <v>0.799082</v>
       </c>
       <c r="I2">
-        <v>0.5906247998374952</v>
+        <v>0.0257989900554292</v>
       </c>
       <c r="J2">
-        <v>0.5906247998374952</v>
+        <v>0.0257989900554292</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>58.925612233692</v>
+        <v>7.259429666666667</v>
       </c>
       <c r="N2">
-        <v>58.925612233692</v>
+        <v>21.778289</v>
       </c>
       <c r="O2">
-        <v>0.4720934126689682</v>
+        <v>0.05296410708422108</v>
       </c>
       <c r="P2">
-        <v>0.4720934126689682</v>
+        <v>0.05296410708422109</v>
       </c>
       <c r="Q2">
-        <v>136.5503486757279</v>
+        <v>1.933626525633111</v>
       </c>
       <c r="R2">
-        <v>136.5503486757279</v>
+        <v>17.402638730698</v>
       </c>
       <c r="S2">
-        <v>0.2788300773622093</v>
+        <v>0.001366420471960507</v>
       </c>
       <c r="T2">
-        <v>0.2788300773622093</v>
+        <v>0.001366420471960507</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -590,111 +593,111 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.31733440688211</v>
+        <v>0.2663606666666666</v>
       </c>
       <c r="H3">
-        <v>2.31733440688211</v>
+        <v>0.799082</v>
       </c>
       <c r="I3">
-        <v>0.5906247998374952</v>
+        <v>0.0257989900554292</v>
       </c>
       <c r="J3">
-        <v>0.5906247998374952</v>
+        <v>0.0257989900554292</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>65.8920841212678</v>
+        <v>60.13240533333334</v>
       </c>
       <c r="N3">
-        <v>65.8920841212678</v>
+        <v>180.397216</v>
       </c>
       <c r="O3">
-        <v>0.5279065873310319</v>
+        <v>0.438720299189682</v>
       </c>
       <c r="P3">
-        <v>0.5279065873310319</v>
+        <v>0.4387202991896821</v>
       </c>
       <c r="Q3">
-        <v>152.6939936753842</v>
+        <v>16.01690757285689</v>
       </c>
       <c r="R3">
-        <v>152.6939936753842</v>
+        <v>144.152168155712</v>
       </c>
       <c r="S3">
-        <v>0.3117947224752859</v>
+        <v>0.01131854063590953</v>
       </c>
       <c r="T3">
-        <v>0.3117947224752859</v>
+        <v>0.01131854063590953</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.60619607730972</v>
+        <v>0.2663606666666666</v>
       </c>
       <c r="H4">
-        <v>1.60619607730972</v>
+        <v>0.799082</v>
       </c>
       <c r="I4">
-        <v>0.4093752001625048</v>
+        <v>0.0257989900554292</v>
       </c>
       <c r="J4">
-        <v>0.4093752001625048</v>
+        <v>0.0257989900554292</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>58.925612233692</v>
+        <v>69.67135866666666</v>
       </c>
       <c r="N4">
-        <v>58.925612233692</v>
+        <v>209.014076</v>
       </c>
       <c r="O4">
-        <v>0.4720934126689682</v>
+        <v>0.5083155937260968</v>
       </c>
       <c r="P4">
-        <v>0.4720934126689682</v>
+        <v>0.5083155937260969</v>
       </c>
       <c r="Q4">
-        <v>94.64608722282973</v>
+        <v>18.55770954202578</v>
       </c>
       <c r="R4">
-        <v>94.64608722282973</v>
+        <v>167.019385878232</v>
       </c>
       <c r="S4">
-        <v>0.1932633353067588</v>
+        <v>0.01311402894755916</v>
       </c>
       <c r="T4">
-        <v>0.1932633353067588</v>
+        <v>0.01311402894755917</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -702,61 +705,371 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2.441874</v>
+      </c>
+      <c r="H5">
+        <v>7.325622</v>
+      </c>
+      <c r="I5">
+        <v>0.2365134606058369</v>
+      </c>
+      <c r="J5">
+        <v>0.236513460605837</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>7.259429666666667</v>
+      </c>
+      <c r="N5">
+        <v>21.778289</v>
+      </c>
+      <c r="O5">
+        <v>0.05296410708422108</v>
+      </c>
+      <c r="P5">
+        <v>0.05296410708422109</v>
+      </c>
+      <c r="Q5">
+        <v>17.726612557862</v>
+      </c>
+      <c r="R5">
+        <v>159.539513020758</v>
+      </c>
+      <c r="S5">
+        <v>0.01252672425438725</v>
+      </c>
+      <c r="T5">
+        <v>0.01252672425438726</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.441874</v>
+      </c>
+      <c r="H6">
+        <v>7.325622</v>
+      </c>
+      <c r="I6">
+        <v>0.2365134606058369</v>
+      </c>
+      <c r="J6">
+        <v>0.236513460605837</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>60.13240533333334</v>
+      </c>
+      <c r="N6">
+        <v>180.397216</v>
+      </c>
+      <c r="O6">
+        <v>0.438720299189682</v>
+      </c>
+      <c r="P6">
+        <v>0.4387202991896821</v>
+      </c>
+      <c r="Q6">
+        <v>146.835757140928</v>
+      </c>
+      <c r="R6">
+        <v>1321.521814268352</v>
+      </c>
+      <c r="S6">
+        <v>0.1037632561993799</v>
+      </c>
+      <c r="T6">
+        <v>0.1037632561993799</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.441874</v>
+      </c>
+      <c r="H7">
+        <v>7.325622</v>
+      </c>
+      <c r="I7">
+        <v>0.2365134606058369</v>
+      </c>
+      <c r="J7">
+        <v>0.236513460605837</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>69.67135866666666</v>
+      </c>
+      <c r="N7">
+        <v>209.014076</v>
+      </c>
+      <c r="O7">
+        <v>0.5083155937260968</v>
+      </c>
+      <c r="P7">
+        <v>0.5083155937260969</v>
+      </c>
+      <c r="Q7">
+        <v>170.128679272808</v>
+      </c>
+      <c r="R7">
+        <v>1531.158113455272</v>
+      </c>
+      <c r="S7">
+        <v>0.1202234801520698</v>
+      </c>
+      <c r="T7">
+        <v>0.1202234801520699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>7.616226333333333</v>
+      </c>
+      <c r="H8">
+        <v>22.848679</v>
+      </c>
+      <c r="I8">
+        <v>0.7376875493387338</v>
+      </c>
+      <c r="J8">
+        <v>0.7376875493387338</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>7.259429666666667</v>
+      </c>
+      <c r="N8">
+        <v>21.778289</v>
+      </c>
+      <c r="O8">
+        <v>0.05296410708422108</v>
+      </c>
+      <c r="P8">
+        <v>0.05296410708422109</v>
+      </c>
+      <c r="Q8">
+        <v>55.28945939224788</v>
+      </c>
+      <c r="R8">
+        <v>497.6051345302309</v>
+      </c>
+      <c r="S8">
+        <v>0.03907096235787332</v>
+      </c>
+      <c r="T8">
+        <v>0.03907096235787333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.60619607730972</v>
-      </c>
-      <c r="H5">
-        <v>1.60619607730972</v>
-      </c>
-      <c r="I5">
-        <v>0.4093752001625048</v>
-      </c>
-      <c r="J5">
-        <v>0.4093752001625048</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>65.8920841212678</v>
-      </c>
-      <c r="N5">
-        <v>65.8920841212678</v>
-      </c>
-      <c r="O5">
-        <v>0.5279065873310319</v>
-      </c>
-      <c r="P5">
-        <v>0.5279065873310319</v>
-      </c>
-      <c r="Q5">
-        <v>105.8356070413424</v>
-      </c>
-      <c r="R5">
-        <v>105.8356070413424</v>
-      </c>
-      <c r="S5">
-        <v>0.216111864855746</v>
-      </c>
-      <c r="T5">
-        <v>0.216111864855746</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>7.616226333333333</v>
+      </c>
+      <c r="H9">
+        <v>22.848679</v>
+      </c>
+      <c r="I9">
+        <v>0.7376875493387338</v>
+      </c>
+      <c r="J9">
+        <v>0.7376875493387338</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>60.13240533333334</v>
+      </c>
+      <c r="N9">
+        <v>180.397216</v>
+      </c>
+      <c r="O9">
+        <v>0.438720299189682</v>
+      </c>
+      <c r="P9">
+        <v>0.4387202991896821</v>
+      </c>
+      <c r="Q9">
+        <v>457.9820089864071</v>
+      </c>
+      <c r="R9">
+        <v>4121.838080877664</v>
+      </c>
+      <c r="S9">
+        <v>0.3236385023543926</v>
+      </c>
+      <c r="T9">
+        <v>0.3236385023543927</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>7.616226333333333</v>
+      </c>
+      <c r="H10">
+        <v>22.848679</v>
+      </c>
+      <c r="I10">
+        <v>0.7376875493387338</v>
+      </c>
+      <c r="J10">
+        <v>0.7376875493387338</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>69.67135866666666</v>
+      </c>
+      <c r="N10">
+        <v>209.014076</v>
+      </c>
+      <c r="O10">
+        <v>0.5083155937260968</v>
+      </c>
+      <c r="P10">
+        <v>0.5083155937260969</v>
+      </c>
+      <c r="Q10">
+        <v>530.6328365561782</v>
+      </c>
+      <c r="R10">
+        <v>4775.695529005603</v>
+      </c>
+      <c r="S10">
+        <v>0.3749780846264678</v>
+      </c>
+      <c r="T10">
+        <v>0.3749780846264679</v>
       </c>
     </row>
   </sheetData>
